--- a/results/MVSE/dblp/MVSE_dblp<l03><WH>91.13.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l03><WH>91.13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +862,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -903,34 +903,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="N7" t="n">
-        <v>90.56999999999999</v>
+        <v>90.83</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.11</v>
+        <v>0.31</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_38_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_13_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -978,27 +978,27 @@
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="N8" t="n">
-        <v>90.51000000000001</v>
+        <v>90.56999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_42_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_38_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -1040,33 +1040,33 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="N9" t="n">
-        <v>90.23999999999999</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.34</v>
+        <v>1.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_18_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_42_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H10" t="n">
         <v>50</v>
@@ -1114,27 +1114,27 @@
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="N10" t="n">
-        <v>90.19</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P10" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_30_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_18_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>128</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H11" t="n">
         <v>50</v>
@@ -1182,20 +1182,20 @@
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="N11" t="n">
-        <v>90.12</v>
+        <v>90.19</v>
       </c>
       <c r="O11" t="n">
         <v>0.02</v>
       </c>
       <c r="P11" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_42_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_30_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
         <v>128</v>
       </c>
       <c r="G12" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
@@ -1250,27 +1250,27 @@
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="N12" t="n">
-        <v>90.02</v>
+        <v>90.12</v>
       </c>
       <c r="O12" t="n">
         <v>0.02</v>
       </c>
       <c r="P12" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_12_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_42_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>128</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H13" t="n">
         <v>50</v>
@@ -1312,33 +1312,33 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="N13" t="n">
-        <v>89.48999999999999</v>
+        <v>90.02</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P13" t="n">
-        <v>0.79</v>
+        <v>0.33</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_12_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1379,34 +1379,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" t="n">
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="N14" t="n">
-        <v>89.26000000000001</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P14" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_14_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1447,34 +1447,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="N15" t="n">
-        <v>89.06</v>
+        <v>89.26000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.25</v>
+        <v>0.77</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_01_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_14_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>128</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
         <v>50</v>
@@ -1516,33 +1516,33 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="N16" t="n">
-        <v>86.86</v>
+        <v>89.06</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P16" t="n">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_08_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_01_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1583,34 +1583,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
       <c r="L17" t="n">
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="N17" t="n">
-        <v>85.61</v>
+        <v>86.86</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="P17" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_12_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_08_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1651,30 +1651,98 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N18" t="n">
+        <v>85.61</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_12_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>128</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>50</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>3</v>
       </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.47</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N19" t="n">
         <v>84.56999999999999</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O19" t="n">
         <v>0.08</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_55_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
